--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Sprint 1 planung</t>
+  </si>
+  <si>
+    <t>Backend Planung</t>
   </si>
 </sst>
 </file>
@@ -146,8 +149,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -233,7 +236,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -532,10 +535,10 @@
   <dimension ref="A2:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11:AA11"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -833,7 +836,9 @@
       <c r="F11" s="1">
         <v>0.65972222222222221</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
       <c r="M11" t="s">
         <v>15</v>
       </c>
@@ -861,7 +866,9 @@
       <c r="Z11" s="1">
         <v>0.65972222222222221</v>
       </c>
-      <c r="AA11" s="4"/>
+      <c r="AA11" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
@@ -880,11 +887,24 @@
       <c r="P12" s="1">
         <v>0.65972222222222221</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="4"/>
+      <c r="Q12" s="4">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>18</v>
+      </c>
+      <c r="X12" s="2">
+        <v>42658</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
@@ -895,10 +915,21 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="4"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="4"/>
+      <c r="W13" t="s">
+        <v>18</v>
+      </c>
+      <c r="X13" s="2">
+        <v>42659</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
@@ -909,10 +940,21 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="4"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="4"/>
+      <c r="W14" t="s">
+        <v>18</v>
+      </c>
+      <c r="X14" s="2">
+        <v>42661</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>Backend Planung</t>
+  </si>
+  <si>
+    <t>Einrichtung GitHub, Projekt anlegen &amp; Desktop-App angangen</t>
+  </si>
+  <si>
+    <t>Einarbeitung in Angular JS &amp; ASP.NET, Dokument für Entscheidungshintergrund erstellt</t>
+  </si>
+  <si>
+    <t>Einrichtung Git Hub &amp; Infrastruktur erweitert</t>
   </si>
 </sst>
 </file>
@@ -149,8 +158,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -236,7 +245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -534,11 +543,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -871,10 +880,21 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="4"/>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2">
+        <v>42662</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
       <c r="M12" t="s">
         <v>17</v>
       </c>
@@ -911,10 +931,21 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="4"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="4"/>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="2">
+        <v>42662</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1</v>
+      </c>
       <c r="W13" t="s">
         <v>18</v>
       </c>
@@ -965,10 +996,21 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="4"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="4"/>
+      <c r="W15" t="s">
+        <v>21</v>
+      </c>
+      <c r="X15" s="2">
+        <v>42296</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Einrichtung Git Hub &amp; Infrastruktur erweitert</t>
+  </si>
+  <si>
+    <t>Erstellung Daten-Klassen, Login- u. MainGUI</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
   <dimension ref="A2:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,10 +930,21 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="4"/>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2">
+        <v>42665</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
       <c r="M13" t="s">
         <v>20</v>
       </c>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -547,7 +547,7 @@
   <dimension ref="A2:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Erstellung Daten-Klassen, Login- u. MainGUI</t>
+  </si>
+  <si>
+    <t>Datenbank und Azure Backend einrichten + Create Tables und Basic Web Service</t>
   </si>
 </sst>
 </file>
@@ -148,49 +151,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="21">
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -206,49 +263,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="C6:G40" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="C6:G40" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="C6:G40"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Aufgabe"/>
-    <tableColumn id="2" name="Datum" dataDxfId="8"/>
-    <tableColumn id="3" name="Von" dataDxfId="7"/>
-    <tableColumn id="4" name="Bis" dataDxfId="6"/>
-    <tableColumn id="5" name="Status"/>
+    <tableColumn id="1" name="Aufgabe" dataDxfId="20"/>
+    <tableColumn id="2" name="Datum" dataDxfId="19"/>
+    <tableColumn id="3" name="Von" dataDxfId="18"/>
+    <tableColumn id="4" name="Bis" dataDxfId="17"/>
+    <tableColumn id="5" name="Status" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle24" displayName="Tabelle24" ref="M6:Q40" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle24" displayName="Tabelle24" ref="M6:Q40" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="M6:Q40"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Aufgabe"/>
-    <tableColumn id="2" name="Datum" dataDxfId="5"/>
-    <tableColumn id="3" name="Von" dataDxfId="4"/>
-    <tableColumn id="4" name="Bis" dataDxfId="3"/>
-    <tableColumn id="5" name="Status"/>
+    <tableColumn id="1" name="Aufgabe" dataDxfId="13"/>
+    <tableColumn id="2" name="Datum" dataDxfId="12"/>
+    <tableColumn id="3" name="Von" dataDxfId="11"/>
+    <tableColumn id="4" name="Bis" dataDxfId="10"/>
+    <tableColumn id="5" name="Status" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle245" displayName="Tabelle245" ref="W6:AA40" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle245" displayName="Tabelle245" ref="W6:AA40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="W6:AA40"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Aufgabe"/>
-    <tableColumn id="2" name="Datum" dataDxfId="2"/>
-    <tableColumn id="3" name="Von" dataDxfId="1"/>
-    <tableColumn id="4" name="Bis" dataDxfId="0"/>
-    <tableColumn id="5" name="Status"/>
+    <tableColumn id="1" name="Aufgabe" dataDxfId="6"/>
+    <tableColumn id="2" name="Datum" dataDxfId="5"/>
+    <tableColumn id="3" name="Von" dataDxfId="4"/>
+    <tableColumn id="4" name="Bis" dataDxfId="3"/>
+    <tableColumn id="5" name="Status" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -546,835 +603,849 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="11" max="11" width="7.77734375" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" customWidth="1"/>
-    <col min="13" max="13" width="61.88671875" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" customWidth="1"/>
-    <col min="23" max="23" width="36.6640625" customWidth="1"/>
-    <col min="24" max="24" width="20.33203125" customWidth="1"/>
-    <col min="25" max="25" width="13.21875" customWidth="1"/>
-    <col min="26" max="26" width="17.21875" customWidth="1"/>
-    <col min="27" max="27" width="14" customWidth="1"/>
+    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9.125" style="1"/>
+    <col min="11" max="11" width="7.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="61.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="1" customWidth="1"/>
+    <col min="18" max="22" width="9.125" style="1"/>
+    <col min="23" max="23" width="36.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.25" style="1" customWidth="1"/>
+    <col min="26" max="26" width="17.25" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="5" spans="1:27" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C5" s="5" t="s">
+    <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="5" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="M5" s="5" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="W5" s="5" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="W5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="M6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W6" t="s">
-        <v>1</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="W6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Z6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>42641</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>0.59027777777777779</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="5">
         <v>0.61111111111111105</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="4">
         <v>42641</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="5">
         <v>0.59027777777777779</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="5">
         <v>0.61111111111111105</v>
       </c>
-      <c r="Q7" s="4">
-        <v>1</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="Q7" s="6">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="4">
         <v>42634</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="5">
         <v>0.59027777777777779</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="5">
         <v>0.65972222222222221</v>
       </c>
-      <c r="AA7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="AA7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>42641</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>0.61111111111111105</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="5">
         <v>0.65972222222222221</v>
       </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="4">
         <v>42641</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="5">
         <v>0.61111111111111105</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="5">
         <v>0.65972222222222221</v>
       </c>
-      <c r="Q8" s="4">
-        <v>1</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="4">
         <v>42641</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y8" s="5">
         <v>0.59027777777777779</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="5">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AA8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+      <c r="AA8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>42647</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="4">
         <v>42647</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="5">
         <v>0.91666666666666663</v>
       </c>
-      <c r="Q9" s="4">
-        <v>1</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="Q9" s="6">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="4">
         <v>42641</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9" s="5">
         <v>0.61111111111111105</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9" s="5">
         <v>0.65972222222222221</v>
       </c>
-      <c r="AA9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+      <c r="AA9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>42648</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="5">
         <v>0.59027777777777779</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="5">
         <v>0.65972222222222221</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="4">
         <v>42647</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="5">
         <v>0.4513888888888889</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="5">
         <v>0.48680555555555555</v>
       </c>
-      <c r="Q10" s="4">
-        <v>1</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="4">
         <v>42648</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y10" s="5">
         <v>0.59027777777777779</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10" s="5">
         <v>0.65972222222222221</v>
       </c>
-      <c r="AA10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+      <c r="AA10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>42655</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="5">
         <v>0.59027777777777779</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="5">
         <v>0.65972222222222221</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="4">
         <v>42650</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="5">
         <v>0.36805555555555558</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="5">
         <v>0.41111111111111115</v>
       </c>
-      <c r="Q11" s="4">
-        <v>1</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="4">
         <v>42655</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y11" s="5">
         <v>0.59027777777777779</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z11" s="5">
         <v>0.65972222222222221</v>
       </c>
-      <c r="AA11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+      <c r="AA11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>42662</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="5">
         <v>0.59027777777777779</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="5">
         <v>0.65972222222222221</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="4">
         <v>42655</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="5">
         <v>0.59027777777777779</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="5">
         <v>0.65972222222222221</v>
       </c>
-      <c r="Q12" s="4">
-        <v>1</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12" s="4">
         <v>42658</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y12" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Z12" s="5">
         <v>0.75</v>
       </c>
-      <c r="AA12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+      <c r="AA12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>42665</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="5">
         <v>0.5</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="5">
         <v>0.5625</v>
       </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="4">
         <v>42662</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="5">
         <v>0.59027777777777779</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="5">
         <v>0.65972222222222221</v>
       </c>
-      <c r="Q13" s="4">
-        <v>1</v>
-      </c>
-      <c r="W13" t="s">
+      <c r="Q13" s="6">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X13" s="4">
         <v>42659</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Y13" s="5">
         <v>0.75</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="Z13" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="AA13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="4"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="W14" t="s">
+      <c r="AA13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6"/>
+      <c r="W14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="4">
         <v>42661</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z14" s="5">
         <v>0.75</v>
       </c>
-      <c r="AA14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="4"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="W15" t="s">
+      <c r="AA14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6"/>
+      <c r="W15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X15" s="2">
-        <v>42296</v>
-      </c>
-      <c r="Y15" s="1">
+      <c r="X15" s="4">
+        <v>42662</v>
+      </c>
+      <c r="Y15" s="5">
         <v>0.59027777777777779</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15" s="5">
         <v>0.65972222222222221</v>
       </c>
-      <c r="AA15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="4"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="4"/>
-    </row>
-    <row r="17" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="4"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="4"/>
-    </row>
-    <row r="18" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="4"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="4"/>
-    </row>
-    <row r="19" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="4"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="4"/>
-    </row>
-    <row r="20" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="4"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="4"/>
-    </row>
-    <row r="21" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="4"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="4"/>
-    </row>
-    <row r="22" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="4"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="4"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="4"/>
-    </row>
-    <row r="23" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="4"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="4"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="4"/>
-    </row>
-    <row r="24" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="4"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="4"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="4"/>
-    </row>
-    <row r="25" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="4"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="4"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="4"/>
-    </row>
-    <row r="26" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D26" s="2"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="4"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="4"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="4"/>
-    </row>
-    <row r="27" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="4"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="4"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="4"/>
-    </row>
-    <row r="28" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D28" s="2"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="4"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="4"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="4"/>
-    </row>
-    <row r="29" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D29" s="2"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="4"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="4"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="4"/>
-    </row>
-    <row r="30" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D30" s="2"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="4"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="4"/>
-    </row>
-    <row r="31" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D31" s="2"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="4"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="4"/>
-    </row>
-    <row r="32" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D32" s="2"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="4"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="4"/>
-    </row>
-    <row r="33" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D33" s="2"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="4"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="4"/>
-    </row>
-    <row r="34" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D34" s="2"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="4"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="4"/>
-    </row>
-    <row r="35" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D35" s="2"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="4"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="4"/>
-    </row>
-    <row r="36" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D36" s="2"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="4"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="4"/>
-    </row>
-    <row r="37" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D37" s="2"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="4"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="4"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="4"/>
-    </row>
-    <row r="38" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D38" s="2"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="4"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="4"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="4"/>
-    </row>
-    <row r="39" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D39" s="2"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="4"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="4"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="4"/>
-    </row>
-    <row r="40" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D40" s="2"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="4"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="4"/>
+      <c r="AA15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6"/>
+      <c r="W16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X16" s="4">
+        <v>42667</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="6"/>
+    </row>
+    <row r="18" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="6"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="6"/>
+    </row>
+    <row r="19" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="6"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="6"/>
+    </row>
+    <row r="20" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="6"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="6"/>
+    </row>
+    <row r="21" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="6"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="6"/>
+    </row>
+    <row r="22" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="6"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="6"/>
+    </row>
+    <row r="23" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="6"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="6"/>
+    </row>
+    <row r="24" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="6"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="6"/>
+    </row>
+    <row r="25" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="6"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="6"/>
+    </row>
+    <row r="26" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="6"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="6"/>
+    </row>
+    <row r="27" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="6"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="6"/>
+    </row>
+    <row r="28" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="6"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="6"/>
+    </row>
+    <row r="29" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="6"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="6"/>
+    </row>
+    <row r="30" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="6"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="6"/>
+    </row>
+    <row r="31" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="6"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="6"/>
+    </row>
+    <row r="32" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="6"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="6"/>
+    </row>
+    <row r="33" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="6"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="6"/>
+    </row>
+    <row r="34" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="6"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="6"/>
+    </row>
+    <row r="35" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="6"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="6"/>
+    </row>
+    <row r="36" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="6"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="6"/>
+    </row>
+    <row r="37" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="6"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="6"/>
+    </row>
+    <row r="38" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="6"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="6"/>
+    </row>
+    <row r="39" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="6"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="6"/>
+    </row>
+    <row r="40" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="6"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Datenbank und Azure Backend einrichten + Create Tables und Basic Web Service</t>
+  </si>
+  <si>
+    <t>Implementierung Administrative Verwaltungs-Applikation</t>
   </si>
 </sst>
 </file>
@@ -159,9 +162,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -171,22 +171,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -244,6 +241,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -263,49 +266,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="C6:G40" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="C6:G40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle24" displayName="Tabelle24" ref="M6:Q40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="M6:Q40"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Aufgabe" dataDxfId="20"/>
-    <tableColumn id="2" name="Datum" dataDxfId="19"/>
-    <tableColumn id="3" name="Von" dataDxfId="18"/>
-    <tableColumn id="4" name="Bis" dataDxfId="17"/>
-    <tableColumn id="5" name="Status" dataDxfId="16"/>
+    <tableColumn id="1" name="Aufgabe" dataDxfId="11"/>
+    <tableColumn id="2" name="Datum" dataDxfId="10"/>
+    <tableColumn id="3" name="Von" dataDxfId="9"/>
+    <tableColumn id="4" name="Bis" dataDxfId="8"/>
+    <tableColumn id="5" name="Status" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle24" displayName="Tabelle24" ref="M6:Q40" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="M6:Q40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle245" displayName="Tabelle245" ref="W6:AA40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="W6:AA40"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Aufgabe" dataDxfId="13"/>
-    <tableColumn id="2" name="Datum" dataDxfId="12"/>
-    <tableColumn id="3" name="Von" dataDxfId="11"/>
-    <tableColumn id="4" name="Bis" dataDxfId="10"/>
-    <tableColumn id="5" name="Status" dataDxfId="9"/>
+    <tableColumn id="1" name="Aufgabe" dataDxfId="4"/>
+    <tableColumn id="2" name="Datum" dataDxfId="3"/>
+    <tableColumn id="3" name="Von" dataDxfId="2"/>
+    <tableColumn id="4" name="Bis" dataDxfId="1"/>
+    <tableColumn id="5" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle245" displayName="Tabelle245" ref="W6:AA40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="W6:AA40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="C6:G39" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="C6:G39"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Aufgabe" dataDxfId="6"/>
-    <tableColumn id="2" name="Datum" dataDxfId="5"/>
-    <tableColumn id="3" name="Von" dataDxfId="4"/>
-    <tableColumn id="4" name="Bis" dataDxfId="3"/>
-    <tableColumn id="5" name="Status" dataDxfId="2"/>
+    <tableColumn id="1" name="Aufgabe" dataDxfId="18"/>
+    <tableColumn id="2" name="Datum" dataDxfId="17"/>
+    <tableColumn id="3" name="Von" dataDxfId="16"/>
+    <tableColumn id="4" name="Bis" dataDxfId="15"/>
+    <tableColumn id="5" name="Status" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -603,64 +606,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9.125" style="1"/>
-    <col min="11" max="11" width="7.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="61.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9.109375" style="1"/>
+    <col min="11" max="11" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="61.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="1" customWidth="1"/>
-    <col min="18" max="22" width="9.125" style="1"/>
-    <col min="23" max="23" width="36.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.25" style="1" customWidth="1"/>
-    <col min="26" max="26" width="17.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" style="1" customWidth="1"/>
+    <col min="18" max="22" width="9.109375" style="1"/>
+    <col min="23" max="23" width="36.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.21875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="17.21875" style="1" customWidth="1"/>
     <col min="27" max="27" width="14" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.125" style="1"/>
+    <col min="28" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="5" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="1:27" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="M5" s="3" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="M5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="W5" s="3" t="s">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="W5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -707,745 +710,807 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>42641</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.59027777777777779</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0.61111111111111105</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>42641</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
         <v>0.59027777777777779</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <v>0.61111111111111105</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>1</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="3">
         <v>42634</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="4">
         <v>0.59027777777777779</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Z7" s="4">
         <v>0.65972222222222221</v>
       </c>
-      <c r="AA7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>42641</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.61111111111111105</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>0.65972222222222221</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>1</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>42641</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="4">
         <v>0.61111111111111105</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="4">
         <v>0.65972222222222221</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>1</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="3">
         <v>42641</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" s="4">
         <v>0.59027777777777779</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="Z8" s="4">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AA8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>42647</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>42647</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="4">
         <v>0.91666666666666663</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>1</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="3">
         <v>42641</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="4">
         <v>0.61111111111111105</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="Z9" s="4">
         <v>0.65972222222222221</v>
       </c>
-      <c r="AA9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>42648</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.59027777777777779</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>0.65972222222222221</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>1</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>42647</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="4">
         <v>0.4513888888888889</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <v>0.48680555555555555</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>1</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="3">
         <v>42648</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="4">
         <v>0.59027777777777779</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="Z10" s="4">
         <v>0.65972222222222221</v>
       </c>
-      <c r="AA10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>42655</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.59027777777777779</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>0.65972222222222221</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>1</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>42650</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="4">
         <v>0.36805555555555558</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="4">
         <v>0.41111111111111115</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <v>1</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="3">
         <v>42655</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="4">
         <v>0.59027777777777779</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="Z11" s="4">
         <v>0.65972222222222221</v>
       </c>
-      <c r="AA11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>42662</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.59027777777777779</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>0.65972222222222221</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>42655</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <v>0.59027777777777779</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>0.65972222222222221</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <v>1</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="3">
         <v>42658</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="Z12" s="4">
         <v>0.75</v>
       </c>
-      <c r="AA12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="AA12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>42665</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>0.5</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>0.5625</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>1</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>42662</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="4">
         <v>0.59027777777777779</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
         <v>0.65972222222222221</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <v>1</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="3">
         <v>42659</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Y13" s="4">
         <v>0.75</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="Z13" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="AA13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="6"/>
+      <c r="AA13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3">
+        <v>42673</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.8125</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
       <c r="W14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="3">
         <v>42661</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Y14" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="Z14" s="4">
         <v>0.75</v>
       </c>
-      <c r="AA14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="6"/>
+      <c r="AA14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3">
+        <v>42674</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
       <c r="W15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15" s="3">
         <v>42662</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="Y15" s="4">
         <v>0.59027777777777779</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="Z15" s="4">
         <v>0.65972222222222221</v>
       </c>
-      <c r="AA15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="6"/>
+      <c r="AA15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3">
+        <v>42676</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="5"/>
       <c r="W16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16" s="3">
         <v>42667</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="Y16" s="4">
         <v>0.625</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="Z16" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="AA16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="6"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="6"/>
-    </row>
-    <row r="18" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="6"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="6"/>
-    </row>
-    <row r="19" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="6"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="6"/>
-    </row>
-    <row r="20" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="6"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="6"/>
-    </row>
-    <row r="21" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="6"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="6"/>
-    </row>
-    <row r="22" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="6"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="6"/>
-    </row>
-    <row r="23" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="6"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="6"/>
-    </row>
-    <row r="24" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="6"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="6"/>
-    </row>
-    <row r="25" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="6"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="6"/>
-    </row>
-    <row r="26" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="6"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="6"/>
-    </row>
-    <row r="27" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="6"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="6"/>
-    </row>
-    <row r="28" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="6"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="6"/>
-    </row>
-    <row r="29" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="6"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="6"/>
-    </row>
-    <row r="30" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="6"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="6"/>
-    </row>
-    <row r="31" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="6"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="6"/>
-    </row>
-    <row r="32" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="6"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="6"/>
-    </row>
-    <row r="33" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="6"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="6"/>
-    </row>
-    <row r="34" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="6"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="6"/>
-    </row>
-    <row r="35" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="6"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="6"/>
-    </row>
-    <row r="36" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="6"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="6"/>
-    </row>
-    <row r="37" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="6"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="6"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="6"/>
-    </row>
-    <row r="38" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="6"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="6"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="6"/>
-    </row>
-    <row r="39" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="6"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="6"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="6"/>
-    </row>
-    <row r="40" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D40" s="4"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="6"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="6"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="6"/>
+      <c r="AA16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3">
+        <v>42678</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.8125</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="5"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="5"/>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3">
+        <v>42679</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="5"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="5"/>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3">
+        <v>42680</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="5"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="5"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="5"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="5"/>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="5"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="5"/>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="5"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="5"/>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="5"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="5"/>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="5"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="5"/>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="5"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="5"/>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="5"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="5"/>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="5"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="5"/>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="5"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="5"/>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="5"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="5"/>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="5"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="5"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="5"/>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="5"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="5"/>
+    </row>
+    <row r="33" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="5"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="5"/>
+    </row>
+    <row r="34" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="5"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="5"/>
+    </row>
+    <row r="35" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="5"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="5"/>
+    </row>
+    <row r="36" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="5"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="5"/>
+    </row>
+    <row r="37" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="5"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="5"/>
+    </row>
+    <row r="38" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="5"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="5"/>
+    </row>
+    <row r="39" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="5"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="5"/>
+    </row>
+    <row r="40" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="5"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Implementierung Administrative Verwaltungs-Applikation</t>
+  </si>
+  <si>
+    <t>Entwicklung Backend</t>
   </si>
 </sst>
 </file>
@@ -176,8 +179,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -266,8 +269,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle24" displayName="Tabelle24" ref="M6:Q40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle24" displayName="Tabelle24" ref="M6:Q40" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="M6:Q40"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Aufgabe" dataDxfId="18"/>
+    <tableColumn id="2" name="Datum" dataDxfId="17"/>
+    <tableColumn id="3" name="Von" dataDxfId="16"/>
+    <tableColumn id="4" name="Bis" dataDxfId="15"/>
+    <tableColumn id="5" name="Status" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle245" displayName="Tabelle245" ref="W6:AA40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="W6:AA40"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Aufgabe" dataDxfId="11"/>
     <tableColumn id="2" name="Datum" dataDxfId="10"/>
@@ -279,9 +296,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle245" displayName="Tabelle245" ref="W6:AA40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="W6:AA40"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="C6:G39" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="C6:G39"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Aufgabe" dataDxfId="4"/>
     <tableColumn id="2" name="Datum" dataDxfId="3"/>
@@ -293,22 +310,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="C6:G39" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="C6:G39"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Aufgabe" dataDxfId="18"/>
-    <tableColumn id="2" name="Datum" dataDxfId="17"/>
-    <tableColumn id="3" name="Von" dataDxfId="16"/>
-    <tableColumn id="4" name="Bis" dataDxfId="15"/>
-    <tableColumn id="5" name="Status" dataDxfId="14"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -606,11 +609,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
@@ -1167,10 +1170,21 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="5"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="5"/>
+      <c r="W17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X17" s="3">
+        <v>42680</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>Entwicklung Backend</t>
+  </si>
+  <si>
+    <t>Erstellung der AngularJS Anwendung in Visual Studio</t>
+  </si>
+  <si>
+    <t>Erstellung des Login und der Hauptseite</t>
+  </si>
+  <si>
+    <t>Filter einbauen</t>
+  </si>
+  <si>
+    <t>Google Maps API einbauen</t>
   </si>
 </sst>
 </file>
@@ -609,41 +621,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9.109375" style="1"/>
-    <col min="11" max="11" width="7.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="61.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9.125" style="1"/>
+    <col min="11" max="11" width="7.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="61.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.625" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" style="1" customWidth="1"/>
-    <col min="18" max="22" width="9.109375" style="1"/>
-    <col min="23" max="23" width="36.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.21875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="17.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="1" customWidth="1"/>
+    <col min="18" max="22" width="9.125" style="1"/>
+    <col min="23" max="23" width="36.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.25" style="1" customWidth="1"/>
+    <col min="26" max="26" width="17.25" style="1" customWidth="1"/>
     <col min="27" max="27" width="14" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.109375" style="1"/>
+    <col min="28" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="5" spans="1:27" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
@@ -666,7 +678,7 @@
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -713,7 +725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -760,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
@@ -807,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
@@ -854,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -901,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -948,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
@@ -995,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1042,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1058,10 +1070,21 @@
       <c r="G14" s="5">
         <v>1</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="5"/>
+      <c r="M14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="3">
+        <v>42668</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>1</v>
+      </c>
       <c r="W14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1078,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1094,10 +1117,21 @@
       <c r="G15" s="5">
         <v>1</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="5"/>
+      <c r="M15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="3">
+        <v>42673</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>1</v>
+      </c>
       <c r="W15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1114,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1130,10 +1164,21 @@
       <c r="G16" s="5">
         <v>1</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="5"/>
+      <c r="M16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="3">
+        <v>42680</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>1</v>
+      </c>
       <c r="W16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1150,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1166,10 +1211,21 @@
       <c r="G17" s="5">
         <v>1</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="5"/>
+      <c r="M17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="3">
+        <v>42690</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0.4</v>
+      </c>
       <c r="W17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1186,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1211,7 +1267,7 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1236,7 +1292,7 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1250,7 +1306,7 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1264,7 +1320,7 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1278,7 +1334,7 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1292,7 +1348,7 @@
       <c r="Z23" s="4"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1306,7 +1362,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1320,7 +1376,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1334,7 +1390,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1348,7 +1404,7 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1362,7 +1418,7 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1376,7 +1432,7 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1390,7 +1446,7 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1404,7 +1460,7 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1418,7 +1474,7 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1432,7 +1488,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1446,7 +1502,7 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1460,7 +1516,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1474,7 +1530,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1488,7 +1544,7 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1502,7 +1558,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1516,7 +1572,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:27" x14ac:dyDescent="0.25">
       <c r="N40" s="3"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Google Maps API einbauen</t>
+  </si>
+  <si>
+    <t>Sprint 2 Planung</t>
   </si>
 </sst>
 </file>
@@ -621,41 +624,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9.125" style="1"/>
-    <col min="11" max="11" width="7.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="61.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9.109375" style="1"/>
+    <col min="11" max="11" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="61.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="1" customWidth="1"/>
-    <col min="18" max="22" width="9.125" style="1"/>
-    <col min="23" max="23" width="36.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.25" style="1" customWidth="1"/>
-    <col min="26" max="26" width="17.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" style="1" customWidth="1"/>
+    <col min="18" max="22" width="9.109375" style="1"/>
+    <col min="23" max="23" width="36.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.21875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="17.21875" style="1" customWidth="1"/>
     <col min="27" max="27" width="14" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.125" style="1"/>
+    <col min="28" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="5" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
@@ -678,7 +681,7 @@
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -725,7 +728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -772,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
@@ -819,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
@@ -866,7 +869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -913,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -960,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1212,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N17" s="3">
         <v>42690</v>
@@ -1224,7 +1227,7 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="Q17" s="5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>25</v>
@@ -1242,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1258,16 +1261,38 @@
       <c r="G18" s="5">
         <v>1</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="5"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="5"/>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="M18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="3">
+        <v>42690</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X18" s="3">
+        <v>42690</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1286,17 +1311,27 @@
       <c r="N19" s="3"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="5"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3">
+        <v>42690</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -1306,11 +1341,22 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3">
+        <v>42693</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -1320,7 +1366,7 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1334,7 +1380,7 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1348,7 +1394,7 @@
       <c r="Z23" s="4"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1362,7 +1408,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1376,7 +1422,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1390,7 +1436,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1404,7 +1450,7 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1418,7 +1464,7 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1432,7 +1478,7 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1446,7 +1492,7 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1460,7 +1506,7 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1474,7 +1520,7 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1488,7 +1534,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1502,7 +1548,7 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1516,7 +1562,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1530,7 +1576,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1544,7 +1590,7 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1558,7 +1604,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1572,7 +1618,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:27" x14ac:dyDescent="0.3">
       <c r="N40" s="3"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Sprint 2 Planung</t>
+  </si>
+  <si>
+    <t>Sprint Meeting</t>
   </si>
 </sst>
 </file>
@@ -624,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19:AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1308,13 +1311,36 @@
       <c r="G19" s="5">
         <v>1</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="5"/>
+      <c r="M19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="3">
+        <v>42697</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>1</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X19" s="3">
+        <v>42697</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
@@ -1367,10 +1393,21 @@
       <c r="AA21" s="5"/>
     </row>
     <row r="22" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="3">
+        <v>42697</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Sprint Meeting</t>
+  </si>
+  <si>
+    <t>WebService-Zugriff in Angular hinzufügen</t>
+  </si>
+  <si>
+    <t>Design Administrative Verwaltungs-Applikation</t>
   </si>
 </sst>
 </file>
@@ -197,8 +203,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -329,7 +335,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -628,10 +634,10 @@
   <dimension ref="A2:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19:AA19"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
@@ -1358,10 +1364,21 @@
       <c r="G20" s="5">
         <v>1</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="5"/>
+      <c r="M20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="3">
+        <v>42699</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>1</v>
+      </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
@@ -1418,10 +1435,21 @@
       <c r="AA22" s="5"/>
     </row>
     <row r="23" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="3">
+        <v>42699</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>Design Administrative Verwaltungs-Applikation</t>
+  </si>
+  <si>
+    <t>WebService-Zugriff in Angular</t>
+  </si>
+  <si>
+    <t>Administrative Destkop-Applikation RatingView</t>
+  </si>
+  <si>
+    <t>Android App</t>
   </si>
 </sst>
 </file>
@@ -633,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1379,10 +1388,21 @@
       <c r="Q20" s="5">
         <v>1</v>
       </c>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="5"/>
+      <c r="W20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X20" s="3">
+        <v>42704</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
@@ -1400,10 +1420,21 @@
       <c r="G21" s="5">
         <v>1</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="5"/>
+      <c r="M21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="3">
+        <v>42704</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>1</v>
+      </c>
       <c r="X21" s="3"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
@@ -1460,10 +1491,21 @@
       <c r="AA23" s="5"/>
     </row>
     <row r="24" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -126,10 +126,13 @@
     <t>WebService-Zugriff in Angular</t>
   </si>
   <si>
-    <t>Administrative Destkop-Applikation RatingView</t>
-  </si>
-  <si>
     <t>Android App</t>
+  </si>
+  <si>
+    <t>Administrative Destkop-Applikation RatingView funktionalität</t>
+  </si>
+  <si>
+    <t>Administrative Destkop-Applikation RatingView Design</t>
   </si>
 </sst>
 </file>
@@ -642,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1389,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X20" s="3">
         <v>42704</v>
@@ -1492,10 +1495,10 @@
     </row>
     <row r="24" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D24" s="3">
-        <v>42700</v>
+        <v>42704</v>
       </c>
       <c r="E24" s="4">
         <v>0.59027777777777779</v>
@@ -1516,10 +1519,21 @@
       <c r="AA24" s="5"/>
     </row>
     <row r="25" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
+      <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="3">
+        <v>42705</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Administrative Destkop-Applikation RatingView Design</t>
+  </si>
+  <si>
+    <t>WebService-Zugriff für Login</t>
+  </si>
+  <si>
+    <t>WebService-Zugriff für Location + CSS Design + Filter</t>
   </si>
 </sst>
 </file>
@@ -215,8 +221,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -347,7 +353,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -645,41 +651,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9.109375" style="1"/>
-    <col min="11" max="11" width="7.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="61.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9.125" style="1"/>
+    <col min="11" max="11" width="7.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="61.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.625" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" style="1" customWidth="1"/>
-    <col min="18" max="22" width="9.109375" style="1"/>
-    <col min="23" max="23" width="36.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.21875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="17.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="1" customWidth="1"/>
+    <col min="18" max="22" width="9.125" style="1"/>
+    <col min="23" max="23" width="36.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.25" style="1" customWidth="1"/>
+    <col min="26" max="26" width="17.25" style="1" customWidth="1"/>
     <col min="27" max="27" width="14" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.109375" style="1"/>
+    <col min="28" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="5" spans="1:27" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
@@ -702,7 +708,7 @@
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -749,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -796,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
@@ -890,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -937,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -984,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1266,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,7 +1449,7 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1459,16 +1465,27 @@
       <c r="G22" s="5">
         <v>1</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="5"/>
+      <c r="M22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N22" s="3">
+        <v>42707</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>1</v>
+      </c>
       <c r="X22" s="3"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1484,16 +1501,27 @@
       <c r="G23" s="5">
         <v>1</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="5"/>
+      <c r="M23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="3">
+        <v>42707</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>1</v>
+      </c>
       <c r="X23" s="3"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1518,7 +1546,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1543,7 +1571,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1557,7 +1585,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1571,7 +1599,7 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1585,7 +1613,7 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1599,7 +1627,7 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1613,7 +1641,7 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1627,7 +1655,7 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1641,7 +1669,7 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1655,7 +1683,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1669,7 +1697,7 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1683,7 +1711,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1697,7 +1725,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1711,7 +1739,7 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1725,7 +1753,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1739,7 +1767,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:27" x14ac:dyDescent="0.25">
       <c r="N40" s="3"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="5010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>WebService-Zugriff für Location + CSS Design + Filter</t>
+  </si>
+  <si>
+    <t>Locationrating verbessern</t>
+  </si>
+  <si>
+    <t>Desktop-App Rating Statistik</t>
   </si>
 </sst>
 </file>
@@ -651,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="V12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,10 +1450,21 @@
       <c r="Q21" s="5">
         <v>1</v>
       </c>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="5"/>
+      <c r="W21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X21" s="3">
+        <v>42711</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
@@ -1537,10 +1554,21 @@
       <c r="G24" s="5">
         <v>1</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="5"/>
+      <c r="M24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="3">
+        <v>42711</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0.7</v>
+      </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -1572,10 +1600,21 @@
       <c r="AA25" s="5"/>
     </row>
     <row r="26" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="3">
+        <v>42711</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -145,6 +145,21 @@
   </si>
   <si>
     <t>Desktop-App Rating Statistik</t>
+  </si>
+  <si>
+    <t>Ratings von WebService abrufen</t>
+  </si>
+  <si>
+    <t>Dekstop-App Rating Statistik 2 Ansicht</t>
+  </si>
+  <si>
+    <t>Android App Map</t>
+  </si>
+  <si>
+    <t>Login Status</t>
+  </si>
+  <si>
+    <t>Main Status</t>
   </si>
 </sst>
 </file>
@@ -184,15 +199,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -200,12 +221,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -224,6 +282,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -655,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AA40"/>
+  <dimension ref="A2:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1389,7 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="Q18" s="5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>30</v>
@@ -1463,7 +1545,7 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="AA21" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="3:27" x14ac:dyDescent="0.25">
@@ -1497,10 +1579,21 @@
       <c r="Q22" s="5">
         <v>1</v>
       </c>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="5"/>
+      <c r="W22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X22" s="3">
+        <v>42718</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="23" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
@@ -1552,7 +1645,7 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="G24" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>40</v>
@@ -1567,7 +1660,7 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="Q24" s="5">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="4"/>
@@ -1588,12 +1681,23 @@
         <v>0.75</v>
       </c>
       <c r="G25" s="5">
-        <v>1</v>
-      </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="3">
+        <v>42718</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>1</v>
+      </c>
       <c r="X25" s="3"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -1613,26 +1717,35 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="G26" s="5">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="5"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="5"/>
     </row>
     <row r="27" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
+      <c r="C27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="3">
+        <v>42718</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.8</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="5"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
@@ -1815,6 +1928,28 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="5"/>
+    </row>
+    <row r="42" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="M42" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N42" s="12"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="M43" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N43" s="8"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="10">
+        <v>0.6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="5010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Main Status</t>
+  </si>
+  <si>
+    <t>Desktop-App Rating Statistik fertiggestellt</t>
   </si>
 </sst>
 </file>
@@ -280,9 +283,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -307,10 +307,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -441,7 +444,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -739,64 +742,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9.125" style="1"/>
-    <col min="11" max="11" width="7.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="61.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9.109375" style="1"/>
+    <col min="11" max="11" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="61.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="1" customWidth="1"/>
-    <col min="18" max="22" width="9.125" style="1"/>
-    <col min="23" max="23" width="36.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.25" style="1" customWidth="1"/>
-    <col min="26" max="26" width="17.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" style="1" customWidth="1"/>
+    <col min="18" max="22" width="9.109375" style="1"/>
+    <col min="23" max="23" width="36.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.21875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="17.21875" style="1" customWidth="1"/>
     <col min="27" max="27" width="14" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.125" style="1"/>
+    <col min="28" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="5" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C5" s="6" t="s">
+    <row r="5" spans="1:27" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="M5" s="6" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="M5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="W5" s="6" t="s">
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="W5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -843,7 +846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
@@ -937,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1501,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1595,7 +1598,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1626,12 +1629,23 @@
       <c r="Q23" s="5">
         <v>1</v>
       </c>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="5"/>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="W23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X23" s="3">
+        <v>42721</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1667,7 +1681,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1703,7 +1717,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1727,7 +1741,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>43</v>
       </c>
@@ -1751,11 +1765,22 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="3">
+        <v>43816</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -1765,7 +1790,7 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1779,7 +1804,7 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1793,7 +1818,7 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1807,7 +1832,7 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1821,7 +1846,7 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1835,7 +1860,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1849,7 +1874,7 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1863,7 +1888,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1877,7 +1902,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1891,7 +1916,7 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1905,7 +1930,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1919,7 +1944,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:27" x14ac:dyDescent="0.3">
       <c r="N40" s="3"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -1929,25 +1954,25 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="42" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="M42" s="11" t="s">
+    <row r="42" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="M42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="N42" s="12"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="M43" s="7" t="s">
+      <c r="N42" s="11"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="M43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N43" s="8"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="10">
+      <c r="N43" s="7"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="9">
         <v>0.6</v>
       </c>
     </row>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="5010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -162,7 +162,7 @@
     <t>Main Status</t>
   </si>
   <si>
-    <t>Desktop-App Rating Statistik fertiggestellt</t>
+    <t>Locations in Google API anzeigen lassen + Entfernung vom aktuellen Standort</t>
   </si>
 </sst>
 </file>
@@ -312,8 +312,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -742,41 +742,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="N18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9.109375" style="1"/>
-    <col min="11" max="11" width="7.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="61.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9.125" style="1"/>
+    <col min="11" max="11" width="7.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="61.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.625" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" style="1" customWidth="1"/>
-    <col min="18" max="22" width="9.109375" style="1"/>
-    <col min="23" max="23" width="36.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.21875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="17.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="1" customWidth="1"/>
+    <col min="18" max="22" width="9.125" style="1"/>
+    <col min="23" max="23" width="36.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.25" style="1" customWidth="1"/>
+    <col min="26" max="26" width="17.25" style="1" customWidth="1"/>
     <col min="27" max="27" width="14" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.109375" style="1"/>
+    <col min="28" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="5" spans="1:27" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C5" s="14" t="s">
         <v>0</v>
       </c>
@@ -799,7 +799,7 @@
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="Q18" s="5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>30</v>
@@ -1410,7 +1410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1629,23 +1629,12 @@
       <c r="Q23" s="5">
         <v>1</v>
       </c>
-      <c r="W23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X23" s="3">
-        <v>42721</v>
-      </c>
-      <c r="Y23" s="4">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Z23" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="AA23" s="5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="X23" s="3"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="5"/>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1681,7 +1670,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1717,7 +1706,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1733,15 +1722,27 @@
       <c r="G26" s="5">
         <v>0.6</v>
       </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="M26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="3">
+        <v>42727</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>1</v>
+      </c>
       <c r="X26" s="3"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>43</v>
       </c>
@@ -1760,27 +1761,17 @@
       <c r="N27" s="3"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
+      <c r="Q27" s="5"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="3">
-        <v>43816</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F28" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G28" s="5">
-        <v>1</v>
-      </c>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
       <c r="N28" s="3"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -1790,7 +1781,7 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1804,7 +1795,7 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1818,7 +1809,7 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1832,7 +1823,7 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1846,7 +1837,7 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1860,7 +1851,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1874,7 +1865,7 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1888,7 +1879,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1902,7 +1893,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1916,7 +1907,7 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1930,7 +1921,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1944,7 +1935,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:27" x14ac:dyDescent="0.25">
       <c r="N40" s="3"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -1954,7 +1945,7 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="42" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:27" x14ac:dyDescent="0.25">
       <c r="M42" s="10" t="s">
         <v>45</v>
       </c>
@@ -1965,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:27" x14ac:dyDescent="0.25">
       <c r="M43" s="6" t="s">
         <v>46</v>
       </c>
@@ -1973,7 +1964,7 @@
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Locations in Google API anzeigen lassen + Entfernung vom aktuellen Standort</t>
+  </si>
+  <si>
+    <t>Google Maps API verbessert</t>
   </si>
 </sst>
 </file>
@@ -742,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,10 +1761,21 @@
       <c r="G27" s="5">
         <v>0.8</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="5"/>
+      <c r="M27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" s="3">
+        <v>42727</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>1</v>
+      </c>
       <c r="X27" s="3"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
@@ -1964,7 +1978,7 @@
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="9">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Google Maps API verbessert</t>
+  </si>
+  <si>
+    <t>Sprint Planning Meeting 3</t>
   </si>
 </sst>
 </file>
@@ -746,7 +749,7 @@
   <dimension ref="A2:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,10 +1635,21 @@
       <c r="Q23" s="5">
         <v>1</v>
       </c>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="5"/>
+      <c r="W23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X23" s="3">
+        <v>42746</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
@@ -1782,14 +1796,36 @@
       <c r="AA27" s="5"/>
     </row>
     <row r="28" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="5"/>
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="3">
+        <v>42746</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="3">
+        <v>42746</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>1</v>
+      </c>
       <c r="X28" s="3"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>Sprint Planning Meeting 3</t>
+  </si>
+  <si>
+    <t>JavaFX Appl Verbessern</t>
+  </si>
+  <si>
+    <t>Add new Rating einbauen</t>
+  </si>
+  <si>
+    <t>Android Appl Verbesserung</t>
   </si>
 </sst>
 </file>
@@ -748,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="I6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,10 +1691,21 @@
       <c r="Q24" s="5">
         <v>1</v>
       </c>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="5"/>
+      <c r="W24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X24" s="3">
+        <v>42753</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
@@ -1832,14 +1852,36 @@
       <c r="AA28" s="5"/>
     </row>
     <row r="29" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="5"/>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="3">
+        <v>42753</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" s="3">
+        <v>42753</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>1</v>
+      </c>
       <c r="X29" s="3"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Android Appl Verbesserung</t>
+  </si>
+  <si>
+    <t>Plakat für TDOT 2016/2017 machen</t>
   </si>
 </sst>
 </file>
@@ -757,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView tabSelected="1" topLeftCell="J5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,10 +1741,21 @@
       <c r="Q25" s="5">
         <v>1</v>
       </c>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="5"/>
+      <c r="W25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X25" s="3">
+        <v>42760</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
@@ -1888,14 +1902,36 @@
       <c r="AA29" s="5"/>
     </row>
     <row r="30" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="5"/>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="3">
+        <v>42760</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N30" s="3">
+        <v>42760</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>1</v>
+      </c>
       <c r="X30" s="3"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="5010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Plakat für TDOT 2016/2017 machen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint Meeting </t>
   </si>
 </sst>
 </file>
@@ -760,41 +763,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="L11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27:AA27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9.125" style="1"/>
-    <col min="11" max="11" width="7.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="61.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9.109375" style="1"/>
+    <col min="11" max="11" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="61.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="1" customWidth="1"/>
-    <col min="18" max="22" width="9.125" style="1"/>
-    <col min="23" max="23" width="36.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.25" style="1" customWidth="1"/>
-    <col min="26" max="26" width="17.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" style="1" customWidth="1"/>
+    <col min="18" max="22" width="9.109375" style="1"/>
+    <col min="23" max="23" width="36.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.21875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="17.21875" style="1" customWidth="1"/>
     <col min="27" max="27" width="14" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.125" style="1"/>
+    <col min="28" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="5" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C5" s="14" t="s">
         <v>0</v>
       </c>
@@ -817,7 +820,7 @@
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -864,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1240,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1381,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1569,7 +1572,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1757,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1788,12 +1791,23 @@
       <c r="Q26" s="5">
         <v>1</v>
       </c>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="5"/>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="W26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X26" s="3">
+        <v>42767</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,12 +1838,23 @@
       <c r="Q27" s="5">
         <v>1</v>
       </c>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="5"/>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="W27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X27" s="3">
+        <v>42774</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1865,7 +1890,7 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>50</v>
       </c>
@@ -1901,7 +1926,7 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>53</v>
       </c>
@@ -1937,35 +1962,79 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="5"/>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="3">
+        <v>42767</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="3">
+        <v>42767</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>1</v>
+      </c>
       <c r="X31" s="3"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="5"/>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="3">
+        <v>42774</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N32" s="3">
+        <v>42774</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>1</v>
+      </c>
       <c r="X32" s="3"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1979,7 +2048,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1993,7 +2062,7 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -2007,7 +2076,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2021,7 +2090,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -2035,7 +2104,7 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2049,7 +2118,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2063,7 +2132,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:27" x14ac:dyDescent="0.3">
       <c r="N40" s="3"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -2073,7 +2142,7 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="42" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:27" x14ac:dyDescent="0.3">
       <c r="M42" s="10" t="s">
         <v>45</v>
       </c>
@@ -2084,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:27" x14ac:dyDescent="0.3">
       <c r="M43" s="6" t="s">
         <v>46</v>
       </c>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sprint Meeting </t>
+  </si>
+  <si>
+    <t>Sprint Planning Meeting Sprint 3</t>
+  </si>
+  <si>
+    <t>22.202.2017</t>
   </si>
 </sst>
 </file>
@@ -287,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -330,6 +336,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -763,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27:AA27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1885,10 +1894,21 @@
       <c r="Q28" s="5">
         <v>1</v>
       </c>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="5"/>
+      <c r="W28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
@@ -2034,21 +2054,43 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="5"/>
+    <row r="33" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>1</v>
+      </c>
       <c r="X33" s="3"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -2062,7 +2104,7 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -2076,7 +2118,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2090,7 +2132,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -2104,7 +2146,7 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2118,7 +2160,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2132,7 +2174,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:27" x14ac:dyDescent="0.3">
       <c r="N40" s="3"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -2142,7 +2184,7 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="42" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:27" x14ac:dyDescent="0.3">
       <c r="M42" s="10" t="s">
         <v>45</v>
       </c>
@@ -2153,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:27" x14ac:dyDescent="0.3">
       <c r="M43" s="6" t="s">
         <v>46</v>
       </c>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>Sprint Planning Meeting Sprint 3</t>
-  </si>
-  <si>
-    <t>22.202.2017</t>
   </si>
 </sst>
 </file>
@@ -334,11 +331,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -772,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="M13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,27 +804,27 @@
       <c r="B2" s="2"/>
     </row>
     <row r="5" spans="1:27" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="M5" s="14" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="M5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="W5" s="14" t="s">
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="W5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
@@ -1897,8 +1894,8 @@
       <c r="W28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X28" s="15" t="s">
-        <v>56</v>
+      <c r="X28" s="14">
+        <v>42788</v>
       </c>
       <c r="Y28" s="4">
         <v>0.59027777777777779</v>
@@ -1941,10 +1938,21 @@
       <c r="Q29" s="5">
         <v>1</v>
       </c>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="5"/>
+      <c r="W29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X29" s="3">
+        <v>42795</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
@@ -2058,8 +2066,8 @@
       <c r="C33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>56</v>
+      <c r="D33" s="14">
+        <v>42788</v>
       </c>
       <c r="E33" s="4">
         <v>0.59027777777777779</v>
@@ -2073,8 +2081,8 @@
       <c r="M33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N33" s="15" t="s">
-        <v>56</v>
+      <c r="N33" s="14">
+        <v>42788</v>
       </c>
       <c r="O33" s="4">
         <v>0.59027777777777779</v>
@@ -2091,14 +2099,36 @@
       <c r="AA33" s="5"/>
     </row>
     <row r="34" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="5"/>
+      <c r="C34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="3">
+        <v>42795</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N34" s="3">
+        <v>42795</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>1</v>
+      </c>
       <c r="X34" s="3"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>Sprint Planning Meeting Sprint 3</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>Google Maps routing recherchiert</t>
+  </si>
+  <si>
+    <t>Backend Security</t>
   </si>
 </sst>
 </file>
@@ -769,41 +778,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9.109375" style="1"/>
-    <col min="11" max="11" width="7.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="61.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9.125" style="1"/>
+    <col min="11" max="11" width="7.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="61.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.625" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" style="1" customWidth="1"/>
-    <col min="18" max="22" width="9.109375" style="1"/>
-    <col min="23" max="23" width="36.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.21875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="17.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="1" customWidth="1"/>
+    <col min="18" max="22" width="9.125" style="1"/>
+    <col min="23" max="23" width="36.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.25" style="1" customWidth="1"/>
+    <col min="26" max="26" width="17.25" style="1" customWidth="1"/>
     <col min="27" max="27" width="14" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.109375" style="1"/>
+    <col min="28" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="5" spans="1:27" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C5" s="15" t="s">
         <v>0</v>
       </c>
@@ -826,7 +835,7 @@
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -873,7 +882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -920,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
@@ -967,7 +976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1014,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1061,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1108,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1202,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1249,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1343,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1437,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1484,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1531,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1578,7 +1587,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1625,7 +1634,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1672,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1719,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1766,7 +1775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1813,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1907,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>50</v>
       </c>
@@ -1954,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>53</v>
       </c>
@@ -1985,12 +1994,23 @@
       <c r="Q30" s="5">
         <v>1</v>
       </c>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="5"/>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="W30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X30" s="3">
+        <v>42802</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
@@ -2026,7 +2046,7 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>54</v>
       </c>
@@ -2062,7 +2082,7 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>55</v>
       </c>
@@ -2098,7 +2118,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>55</v>
       </c>
@@ -2134,21 +2154,43 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="5"/>
+    <row r="35" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="3">
+        <v>42802</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N35" s="3">
+        <v>42802</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>1</v>
+      </c>
       <c r="X35" s="3"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2162,7 +2204,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -2176,7 +2218,7 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2190,7 +2232,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2204,7 +2246,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:27" x14ac:dyDescent="0.25">
       <c r="N40" s="3"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -2214,7 +2256,7 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="42" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:27" x14ac:dyDescent="0.25">
       <c r="M42" s="10" t="s">
         <v>45</v>
       </c>
@@ -2225,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:27" x14ac:dyDescent="0.25">
       <c r="M43" s="6" t="s">
         <v>46</v>
       </c>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Backend Security</t>
+  </si>
+  <si>
+    <t>Google Maps routing angefangen einzubauen</t>
   </si>
 </sst>
 </file>
@@ -778,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="J5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,7 +2010,7 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="AA30" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="3:27" x14ac:dyDescent="0.25">
@@ -2041,10 +2044,21 @@
       <c r="Q31" s="5">
         <v>1</v>
       </c>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="5"/>
+      <c r="W31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X31" s="3">
+        <v>42816</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="32" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
@@ -2191,14 +2205,36 @@
       <c r="AA35" s="5"/>
     </row>
     <row r="36" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="5"/>
+      <c r="C36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="3">
+        <v>42816</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="3">
+        <v>42816</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>0.2</v>
+      </c>
       <c r="X36" s="3"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>

--- a/doc/BSD - Protokoll.xlsx
+++ b/doc/BSD - Protokoll.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>Lamprecht Daniel</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Google Maps routing angefangen einzubauen</t>
+  </si>
+  <si>
+    <t>Google Maps routing einbauen</t>
+  </si>
+  <si>
+    <t>App Routing</t>
   </si>
 </sst>
 </file>
@@ -351,8 +357,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -781,41 +787,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9.125" style="1"/>
-    <col min="11" max="11" width="7.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="61.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9.109375" style="1"/>
+    <col min="11" max="11" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="61.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="1" customWidth="1"/>
-    <col min="18" max="22" width="9.125" style="1"/>
-    <col min="23" max="23" width="36.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.25" style="1" customWidth="1"/>
-    <col min="26" max="26" width="17.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" style="1" customWidth="1"/>
+    <col min="18" max="22" width="9.109375" style="1"/>
+    <col min="23" max="23" width="36.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.21875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="17.21875" style="1" customWidth="1"/>
     <col min="27" max="27" width="14" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.125" style="1"/>
+    <col min="28" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="5" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C5" s="15" t="s">
         <v>0</v>
       </c>
@@ -838,7 +844,7 @@
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -885,7 +891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
@@ -979,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1073,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1120,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1308,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1355,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1402,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1449,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1496,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1543,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1590,7 +1596,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1778,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1825,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>43</v>
       </c>
@@ -1872,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>50</v>
       </c>
@@ -1966,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>53</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
@@ -2060,7 +2066,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>54</v>
       </c>
@@ -2091,12 +2097,23 @@
       <c r="Q32" s="5">
         <v>1</v>
       </c>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="5"/>
-    </row>
-    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="W32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X32" s="3">
+        <v>42823</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>55</v>
       </c>
@@ -2132,7 +2149,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>55</v>
       </c>
@@ -2168,7 +2185,7 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>56</v>
       </c>
@@ -2204,7 +2221,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
         <v>56</v>
       </c>
@@ -2240,21 +2257,43 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D37" s="3"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="5"/>
+    <row r="37" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="3">
+        <v>42823</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" s="3">
+        <v>42823</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>0.8</v>
+      </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2268,7 +2307,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2282,7 +2321,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:27" x14ac:dyDescent="0.3">
       <c r="N40" s="3"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -2292,7 +2331,7 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="42" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:27" x14ac:dyDescent="0.3">
       <c r="M42" s="10" t="s">
         <v>45</v>
       </c>
@@ -2303,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:27" x14ac:dyDescent="0.3">
       <c r="M43" s="6" t="s">
         <v>46</v>
       </c>
